--- a/documentation/Sprint Backlog Burndown.xlsx
+++ b/documentation/Sprint Backlog Burndown.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcorley\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/daf4c36fd6410f15/Desktop/JamesBridgesHW5_Sprint1/TextAdventureGame/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C86FA19-BAF0-4882-AC44-363173A7A31F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{2C86FA19-BAF0-4882-AC44-363173A7A31F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45A3F5DB-CA08-4286-B341-007494EB90E1}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="876" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1349,14 +1349,14 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" customWidth="1"/>
-    <col min="2" max="2" width="41.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1373,7 +1373,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -1390,7 +1390,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1405,7 +1405,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>10</v>
@@ -1418,7 +1418,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>11</v>
@@ -1431,7 +1431,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -1444,7 +1444,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>13</v>
@@ -1457,7 +1457,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>14</v>
@@ -1470,7 +1470,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>16</v>
@@ -1483,7 +1483,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1492,7 +1492,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1501,7 +1501,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1510,7 +1510,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1519,7 +1519,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1528,7 +1528,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1537,7 +1537,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1546,7 +1546,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1555,7 +1555,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1564,7 +1564,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1573,7 +1573,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1582,7 +1582,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1591,7 +1591,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1600,7 +1600,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1609,7 +1609,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1618,7 +1618,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1627,7 +1627,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1636,7 +1636,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
         <v>8</v>
       </c>

--- a/documentation/Sprint Backlog Burndown.xlsx
+++ b/documentation/Sprint Backlog Burndown.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/daf4c36fd6410f15/Desktop/JamesBridgesHW5_Sprint1/TextAdventureGame/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{2C86FA19-BAF0-4882-AC44-363173A7A31F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45A3F5DB-CA08-4286-B341-007494EB90E1}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{2C86FA19-BAF0-4882-AC44-363173A7A31F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCD214A5-6057-4A23-8CB9-7231783B4B3C}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="876" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3636" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -292,7 +292,7 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1080,6 +1080,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1346,7 +1350,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1400,7 +1404,9 @@
       <c r="C3" s="1">
         <v>1.5</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -1646,7 +1652,7 @@
       </c>
       <c r="D27" s="3">
         <f t="shared" ref="D27:G27" si="0">SUM(D3:D26)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E27" s="3">
         <f t="shared" si="0"/>

--- a/documentation/Sprint Backlog Burndown.xlsx
+++ b/documentation/Sprint Backlog Burndown.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/daf4c36fd6410f15/Desktop/JamesBridgesHW5_Sprint1/TextAdventureGame/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{2C86FA19-BAF0-4882-AC44-363173A7A31F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCD214A5-6057-4A23-8CB9-7231783B4B3C}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{2C86FA19-BAF0-4882-AC44-363173A7A31F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F97212D0-0B47-4C52-9EB0-2B2588438E3D}"/>
   <bookViews>
-    <workbookView xWindow="3636" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -292,7 +292,7 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1350,7 +1350,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1419,7 +1419,9 @@
       <c r="C4" s="1">
         <v>2</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -1432,7 +1434,9 @@
       <c r="C5" s="1">
         <v>0.5</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1445,7 +1449,9 @@
       <c r="C6" s="1">
         <v>2</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1458,7 +1464,9 @@
       <c r="C7" s="1">
         <v>4</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1471,7 +1479,9 @@
       <c r="C8" s="1">
         <v>3.5</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>0.5</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1484,7 +1494,9 @@
       <c r="C9" s="1">
         <v>0.5</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1652,7 +1664,7 @@
       </c>
       <c r="D27" s="3">
         <f t="shared" ref="D27:G27" si="0">SUM(D3:D26)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E27" s="3">
         <f t="shared" si="0"/>
